--- a/medicine/Mort/Cimetière_de_Richmond/Cimetière_de_Richmond.xlsx
+++ b/medicine/Mort/Cimetière_de_Richmond/Cimetière_de_Richmond.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Richmond</t>
+          <t>Cimetière_de_Richmond</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière Richmond, en anglais : Richmond Cemetery, est un cimetière situé dans le Borough londonien de Richmond upon Thames, dans le Grand Londres, au Royaume-Uni[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière Richmond, en anglais : Richmond Cemetery, est un cimetière situé dans le Borough londonien de Richmond upon Thames, dans le Grand Londres, au Royaume-Uni,.
 Le cimetière a été créé en 1786 et couvre une superficie d'environ 6 hectares.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Richmond</t>
+          <t>Cimetière_de_Richmond</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,35 +524,37 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Mary Elizabeth Braddon, écrivaine[1]
-Frances Browne, poète irlandais[3]
-Arthur Herbert Church, chimiste[4]
-Frederick Cook, politicien[4]
-Frederick Jeremiah Edwards, titulaire de la Croix de Victoria[4],[5]
-Charles Garvice, écrivain[4]
-Lord Claud Hamilton, parlementaire[4]
-Harry Hampton,  titulaire de la Croix de Victoria[4],[6]
-George Julian Harney, politicien[2]
-William Harvey, graveur[4]
-Arthur Hughes, peintre[4],[3]
-Julius Jeffreys, chirurgien[4]
-William McMillan, sculpteur[4]
-Sir William Olpherts,  titulaire de la Croix de Victoria et général[4],[7]
-George Osborn, méthodiste[4]
-Sir Andrzej Panufnik[4]
-Félix Pissarro, peintre[4],[8]
-Sir Harry Prendergast,  titulaire de la Croix de Victoria et général[4],[9]
-Keith Relf, chanteur des Yardbirds[10]
-Tom Richardson, joueur de criket[4]
-Dudley Ridout, général[4]
-Robert Allen Rolfe, horticulteur[4]
-Sir James Szlumper, ingénieur[10]
-Leslie Stuart, compositeur[4]
-Montague Summers, historien[4]
-Max Waechter[4]
-Andrew Watson, footballeur[11]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Mary Elizabeth Braddon, écrivaine
+Frances Browne, poète irlandais
+Arthur Herbert Church, chimiste
+Frederick Cook, politicien
+Frederick Jeremiah Edwards, titulaire de la Croix de Victoria,
+Charles Garvice, écrivain
+Lord Claud Hamilton, parlementaire
+Harry Hampton,  titulaire de la Croix de Victoria,
+George Julian Harney, politicien
+William Harvey, graveur
+Arthur Hughes, peintre,
+Julius Jeffreys, chirurgien
+William McMillan, sculpteur
+Sir William Olpherts,  titulaire de la Croix de Victoria et général,
+George Osborn, méthodiste
+Sir Andrzej Panufnik
+Félix Pissarro, peintre,
+Sir Harry Prendergast,  titulaire de la Croix de Victoria et général,
+Keith Relf, chanteur des Yardbirds
+Tom Richardson, joueur de criket
+Dudley Ridout, général
+Robert Allen Rolfe, horticulteur
+Sir James Szlumper, ingénieur
+Leslie Stuart, compositeur
+Montague Summers, historien
+Max Waechter
+Andrew Watson, footballeur</t>
         </is>
       </c>
     </row>
